--- a/Lab3Tingeso/carreras.xlsx
+++ b/Lab3Tingeso/carreras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alcid\OneDrive\Documents\2023-2\MTIngSW\Datos_Eval3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC130FE-30B8-4862-A4F9-23633117A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1CA6E-95AA-405E-814E-CB1B5C87CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{4C6CA766-2A42-42C4-80A1-CBA0C753D42A}"/>
   </bookViews>
